--- a/output/sites/clustering with all nutrients/Mann_Whitney_test_clust_all_nut_compo_sites.xlsx
+++ b/output/sites/clustering with all nutrients/Mann_Whitney_test_clust_all_nut_compo_sites.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Site</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cluster_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -416,266 +419,296 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
+        <v>0.000411353352529823</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.000102838338132456</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.0553270259152612</v>
+        <v>0.474701768819416</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00462772521596051</v>
+        <v>0.043089263677499</v>
       </c>
       <c r="H2" t="n">
-        <v>0.018510900863842</v>
+        <v>0.000102838338132456</v>
       </c>
       <c r="I2" t="n">
+        <v>0.00071986836692719</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.000102838338132456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.034965034965035</v>
+        <v>0.000582750582750583</v>
       </c>
       <c r="E3" t="n">
-        <v>0.533799533799534</v>
+        <v>0.0728438228438228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0221445221445221</v>
+        <v>0.164918414918415</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0734265734265734</v>
+        <v>0.000582750582750583</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0221445221445221</v>
+        <v>0.0378787878787879</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0221445221445221</v>
+        <v>0.000582750582750583</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000582750582750583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.163636363636364</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0424242424242424</v>
+        <v>0.183333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0121212121212121</v>
+        <v>0.183333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0121212121212121</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00606060606060606</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.927272727272727</v>
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.516666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00024975024975025</v>
+        <v>0.193233237350884</v>
       </c>
       <c r="E5" t="n">
-        <v>0.313186813186813</v>
+        <v>0.000102838338132456</v>
       </c>
       <c r="F5" t="n">
-        <v>0.263486513486514</v>
+        <v>0.229535170711641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004995004995005</v>
+        <v>0.229535170711641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.492257742257742</v>
+        <v>0.00678733031674208</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00474525474525475</v>
+        <v>0.0702385849444673</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00195392842451666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001998001998002</v>
+        <v>0.286713286713287</v>
       </c>
       <c r="E6" t="n">
-        <v>0.023976023976024</v>
+        <v>0.00699300699300699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.303696303696304</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001998001998002</v>
+        <v>0.286713286713287</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00799200799200799</v>
+        <v>0.00699300699300699</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001998001998002</v>
+        <v>0.013986013986014</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00699300699300699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00952380952380952</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.019047619047619</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.352380952380952</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00952380952380952</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00952380952380952</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.019047619047619</v>
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0166666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0000158767960625546</v>
+        <v>0.0000010197546878123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.520806541239978</v>
+        <v>0.0000010197546878123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0000635071842502183</v>
+        <v>0.625096366817998</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0000317535921251092</v>
+        <v>0.0000193753390684337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00106374533619116</v>
+        <v>0.0000020395093756246</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000158767960625546</v>
+        <v>0.000373230215739302</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0000010197546878123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.814808720691074</v>
+        <v>0.000666000666000666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.814808720691074</v>
+        <v>0.370962370962371</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000987248046071575</v>
+        <v>0.767898767898768</v>
       </c>
       <c r="G9" t="n">
-        <v>0.19958864664747</v>
+        <v>0.00799200799200799</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000329082682023858</v>
+        <v>0.594072594072594</v>
       </c>
       <c r="I9" t="n">
-        <v>0.814808720691074</v>
+        <v>0.00799200799200799</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.678654678654679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0000136086823393325</v>
+        <v>0.1859305125559</v>
       </c>
       <c r="E10" t="n">
-        <v>0.193005137277583</v>
+        <v>0.000171998624011008</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0183853298404382</v>
+        <v>0.297557619539044</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000027217364678665</v>
+        <v>0.106811145510836</v>
       </c>
       <c r="H10" t="n">
-        <v>0.111053652230123</v>
+        <v>0.000171998624011008</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000027217364678665</v>
+        <v>0.559339525283798</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.000171998624011008</v>
       </c>
     </row>
   </sheetData>
